--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,15 +125,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -164,12 +165,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="0" t="n">
-        <f aca="false">I6</f>
-        <v>118</v>
+        <f aca="false">SUM(B3:B6)+F3</f>
+        <v>84</v>
       </c>
       <c r="I4" s="0" t="n">
-        <f aca="false">SUM(B4:B6)</f>
-        <v>38</v>
+        <f aca="false">SUM(F3:F4)</f>
+        <v>126</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">F3</f>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -178,7 +183,7 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">SUM(I3:I4)</f>
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -186,14 +191,14 @@
         <v>21</v>
       </c>
       <c r="I6" s="0" t="n">
-        <f aca="false">SUM(I3:I5)</f>
-        <v>118</v>
+        <f aca="false">SUM(I3:I5)+J4</f>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet #1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Longer Sheet Name" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -127,14 +128,11 @@
   </sheetPr>
   <dimension ref="B2:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -198,7 +196,40 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <f aca="false">'Sheet #1'!B4</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet #1" sheetId="1" state="visible" r:id="rId2"/>
@@ -104,8 +104,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,62 +137,65 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">SUM(B3:B6)</f>
         <v>42</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <f aca="false">SUM(B3:B5)</f>
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">SUM(B3:B6)+F3</f>
         <v>84</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">SUM(F3:F4)</f>
         <v>126</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false">F3</f>
         <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">SUM(I3:I4)</f>
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">SUM(I3:I5)+J4</f>
         <v>336</v>
       </c>
@@ -209,7 +216,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -217,13 +224,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <f aca="false">'Sheet #1'!B4</f>
-        <v>8</v>
+      <c r="A2" s="1" t="n">
+        <f aca="false">'Sheet #1'!B4 + 'Sheet #1'!B6 + SUM('Sheet #1'!B3:B4)</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
